--- a/データベース設計.xlsx
+++ b/データベース設計.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="106">
   <si>
     <t xml:space="preserve">ユーザータイプ</t>
   </si>
@@ -917,9 +917,6 @@
   </si>
   <si>
     <t xml:space="preserve">img_sub08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">img_sub09</t>
   </si>
   <si>
     <t xml:space="preserve">regist_by</t>
@@ -1123,6 +1120,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1132,10 +1133,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1278,7 +1275,7 @@
       <selection pane="topLeft" activeCell="V20" activeCellId="0" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -1289,18 +1286,18 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1308,24 +1305,24 @@
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1336,66 +1333,66 @@
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="N10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="O10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="P10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="Q10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R10" s="0" t="s">
+      <c r="R10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T10" s="0" t="s">
+      <c r="T10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1403,21 +1400,21 @@
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1425,48 +1422,48 @@
       <c r="B16" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1474,37 +1471,37 @@
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1530,11 +1527,11 @@
       <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="17.92"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2058,16 +2055,16 @@
   </sheetPr>
   <dimension ref="B4:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="18.77"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,203 +2539,195 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="10" t="s">
-        <v>27</v>
+      <c r="B40" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>64</v>
+        <v>99</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="F40" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="G40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="20" t="s">
-        <v>28</v>
+      <c r="B41" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>102</v>
-      </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="F42" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="16" t="s">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D47" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G47" s="16" t="s">
+      <c r="E51" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="16" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>51</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E52" s="10"/>
       <c r="F52" s="15" t="s">
         <v>51</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>76</v>
-      </c>
+      <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
+      <c r="G53" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/データベース設計.xlsx
+++ b/データベース設計.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="107">
   <si>
     <t xml:space="preserve">ユーザータイプ</t>
   </si>
@@ -844,25 +844,28 @@
     <t xml:space="preserve">AI</t>
   </si>
   <si>
+    <t xml:space="preserve">type_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR(10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR(12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAR(60)</t>
+  </si>
+  <si>
     <t xml:space="preserve">user_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARCHAR(10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARCHAR(12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAR(60)</t>
   </si>
   <si>
     <t xml:space="preserve">regist_date</t>
@@ -1271,11 +1274,11 @@
   </sheetPr>
   <dimension ref="B3:U19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V20" activeCellId="0" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -1523,14 +1526,14 @@
   </sheetPr>
   <dimension ref="B4:O36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="17.92"/>
   </cols>
   <sheetData>
@@ -2055,11 +2058,11 @@
   </sheetPr>
   <dimension ref="B4:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="19.17"/>
@@ -2247,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>72</v>
@@ -2263,7 +2266,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>64</v>
@@ -2322,10 +2325,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="15" t="s">
@@ -2338,10 +2341,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="15" t="s">
@@ -2356,7 +2359,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>72</v>
@@ -2372,7 +2375,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>72</v>
@@ -2386,7 +2389,7 @@
         <v>41</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>72</v>
@@ -2400,7 +2403,7 @@
         <v>42</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>72</v>
@@ -2414,10 +2417,10 @@
         <v>17</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="15" t="s">
@@ -2430,10 +2433,10 @@
         <v>66</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -2444,10 +2447,10 @@
         <v>19</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -2458,10 +2461,10 @@
         <v>20</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -2472,10 +2475,10 @@
         <v>21</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -2486,10 +2489,10 @@
         <v>22</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -2500,10 +2503,10 @@
         <v>23</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -2514,10 +2517,10 @@
         <v>24</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -2528,10 +2531,10 @@
         <v>25</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -2542,7 +2545,7 @@
         <v>27</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>64</v>
@@ -2556,7 +2559,7 @@
         <v>28</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>72</v>
@@ -2572,10 +2575,10 @@
         <v>67</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -2586,7 +2589,7 @@
         <v>68</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>72</v>
@@ -2647,10 +2650,10 @@
         <v>57</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="15" t="s">
@@ -2710,10 +2713,10 @@
         <v>62</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="15" t="s">

--- a/データベース設計.xlsx
+++ b/データベース設計.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="112">
   <si>
     <t xml:space="preserve">ユーザータイプ</t>
   </si>
@@ -838,6 +838,9 @@
     <t xml:space="preserve">その他制約等</t>
   </si>
   <si>
+    <t xml:space="preserve">user_types</t>
+  </si>
+  <si>
     <t xml:space="preserve">INT</t>
   </si>
   <si>
@@ -853,6 +856,9 @@
     <t xml:space="preserve">UQ</t>
   </si>
   <si>
+    <t xml:space="preserve">users</t>
+  </si>
+  <si>
     <t xml:space="preserve">user_name</t>
   </si>
   <si>
@@ -871,6 +877,9 @@
     <t xml:space="preserve">regist_date</t>
   </si>
   <si>
+    <t xml:space="preserve">products</t>
+  </si>
+  <si>
     <t xml:space="preserve">products_name</t>
   </si>
   <si>
@@ -934,10 +943,16 @@
     <t xml:space="preserve">update_by</t>
   </si>
   <si>
+    <t xml:space="preserve">cat_a_s</t>
+  </si>
+  <si>
     <t xml:space="preserve">cat_a_name</t>
   </si>
   <si>
     <t xml:space="preserve">VARCHAR(20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat_b_s</t>
   </si>
   <si>
     <t xml:space="preserve">cat_b_name</t>
@@ -1268,17 +1283,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B3:U19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V20" activeCellId="0" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -1511,7 +1526,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -1520,17 +1535,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B4:O36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="15.95"/>
@@ -2043,7 +2058,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -2052,17 +2067,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B4:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="19.17"/>
@@ -2107,6 +2122,9 @@
       <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="11" t="s">
@@ -2136,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>51</v>
@@ -2145,7 +2163,7 @@
         <v>51</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,23 +2171,26 @@
         <v>54</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="15" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="17" t="s">
         <v>3</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
@@ -2199,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>51</v>
@@ -2208,7 +2229,7 @@
         <v>51</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,17 +2237,17 @@
         <v>6</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="15" t="s">
         <v>51</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,10 +2255,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="15" t="s">
@@ -2250,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="15" t="s">
@@ -2266,7 +2287,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>64</v>
@@ -2279,6 +2300,9 @@
       <c r="B21" s="18" t="s">
         <v>58</v>
       </c>
+      <c r="C21" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="11" t="s">
@@ -2308,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>51</v>
@@ -2317,7 +2341,7 @@
         <v>51</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,10 +2349,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="15" t="s">
@@ -2341,17 +2365,17 @@
         <v>14</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="15" t="s">
         <v>51</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2359,10 +2383,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="15" t="s">
@@ -2375,10 +2399,10 @@
         <v>40</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -2389,10 +2413,10 @@
         <v>41</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -2403,10 +2427,10 @@
         <v>42</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -2417,10 +2441,10 @@
         <v>17</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="15" t="s">
@@ -2433,10 +2457,10 @@
         <v>66</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -2447,10 +2471,10 @@
         <v>19</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -2461,10 +2485,10 @@
         <v>20</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -2475,10 +2499,10 @@
         <v>21</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -2489,10 +2513,10 @@
         <v>22</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -2503,10 +2527,10 @@
         <v>23</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -2517,10 +2541,10 @@
         <v>24</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -2531,10 +2555,10 @@
         <v>25</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -2545,7 +2569,7 @@
         <v>27</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>64</v>
@@ -2559,10 +2583,10 @@
         <v>28</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="15" t="s">
@@ -2575,10 +2599,10 @@
         <v>67</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -2589,10 +2613,10 @@
         <v>68</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="15" t="s">
@@ -2604,6 +2628,9 @@
       <c r="B44" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="C44" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="11" t="s">
@@ -2633,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>51</v>
@@ -2642,7 +2669,7 @@
         <v>51</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,23 +2677,26 @@
         <v>57</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="15" t="s">
         <v>51</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="19" t="s">
         <v>16</v>
       </c>
+      <c r="C49" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="11" t="s">
@@ -2696,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>51</v>
@@ -2705,7 +2735,7 @@
         <v>51</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,17 +2743,17 @@
         <v>62</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="15" t="s">
         <v>51</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,7 +2765,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/データベース設計.xlsx
+++ b/データベース設計.xlsx
@@ -1283,17 +1283,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B3:U19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V20" activeCellId="0" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -1526,7 +1526,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -1535,17 +1535,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B4:O36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="15.95"/>
@@ -2058,7 +2058,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -2067,17 +2067,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B4:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="19.17"/>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="15" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G40" s="10"/>
     </row>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="15" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42" s="10"/>
     </row>
@@ -2765,7 +2765,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/データベース設計.xlsx
+++ b/データベース設計.xlsx
@@ -838,7 +838,7 @@
     <t xml:space="preserve">その他制約等</t>
   </si>
   <si>
-    <t xml:space="preserve">user_types</t>
+    <t xml:space="preserve">users_types</t>
   </si>
   <si>
     <t xml:space="preserve">INT</t>
@@ -943,19 +943,19 @@
     <t xml:space="preserve">update_by</t>
   </si>
   <si>
-    <t xml:space="preserve">cat_a_s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cat_a_name</t>
+    <t xml:space="preserve">as_categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_category_name</t>
   </si>
   <si>
     <t xml:space="preserve">VARCHAR(20)</t>
   </si>
   <si>
-    <t xml:space="preserve">cat_b_s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cat_b_name</t>
+    <t xml:space="preserve">bs_categories_b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_category_name</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1293,7 +1293,7 @@
       <selection pane="topLeft" activeCell="V20" activeCellId="0" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -1526,7 +1526,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -1535,7 +1535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1545,7 +1545,7 @@
       <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="15.95"/>
@@ -2058,7 +2058,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -2067,17 +2067,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B4:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="19.17"/>
@@ -2765,7 +2765,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
